--- a/CV/CV_database.xlsx
+++ b/CV/CV_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aymeric\Documents\GitHub\Aymeric_CV\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A487C-5317-4827-BB8B-DBE2903424AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09593C01-EF33-415D-9DB0-AF99592BEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="585" windowWidth="18420" windowHeight="10500" tabRatio="724" firstSheet="2" activeTab="4" xr2:uid="{8640E71C-101B-402D-8D1E-82767EE98E68}"/>
+    <workbookView xWindow="2295" yWindow="585" windowWidth="18420" windowHeight="10500" tabRatio="724" firstSheet="2" activeTab="5" xr2:uid="{8640E71C-101B-402D-8D1E-82767EE98E68}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>where</t>
   </si>
@@ -332,12 +332,6 @@
     <t>2022 - Present</t>
   </si>
   <si>
-    <t>ESA student member</t>
-  </si>
-  <si>
-    <t>Ecological Society of America</t>
-  </si>
-  <si>
     <t>Praha-Suchdol, Czech Republic</t>
   </si>
   <si>
@@ -348,9 +342,6 @@
   </si>
   <si>
     <t>Reflections and discussions around current and future UdS environmental policies and prospects for improvements</t>
-  </si>
-  <si>
-    <t>Washington, USA</t>
   </si>
   <si>
     <t>10 500 $</t>
@@ -1250,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7944FD9-EA7C-476A-A3C5-8D9D0BD7F20C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1296,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4242D46-BCFC-40E7-86B5-81B9738C0652}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,38 +1371,24 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1431,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,7 +1442,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1453,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1464,7 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/CV/CV_database.xlsx
+++ b/CV/CV_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aymeric\Documents\GitHub\Aymeric_CV\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09593C01-EF33-415D-9DB0-AF99592BEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6747892-1CDF-4D0D-AFAA-53AEBA5AA88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="585" windowWidth="18420" windowHeight="10500" tabRatio="724" firstSheet="2" activeTab="5" xr2:uid="{8640E71C-101B-402D-8D1E-82767EE98E68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="724" activeTab="3" xr2:uid="{8640E71C-101B-402D-8D1E-82767EE98E68}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
   <si>
     <t>where</t>
   </si>
@@ -354,13 +354,22 @@
   </si>
   <si>
     <t>760 $</t>
+  </si>
+  <si>
+    <t>Nov. 2022</t>
+  </si>
+  <si>
+    <t>11° Festival del Chocolate</t>
+  </si>
+  <si>
+    <t>Influencia de la presencia y del mantenimienbto de las comunidades de aves y murcielagos en los agroforestales de cacao de la region Zoque | Presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +379,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,13 +409,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,15 +737,15 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -742,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -759,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -776,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -793,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -823,12 +843,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -845,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -862,7 +882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -876,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -893,7 +913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -910,7 +930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -927,7 +947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -944,7 +964,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -975,14 +995,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1050,7 +1070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1067,7 +1087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1084,7 +1104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1135,7 +1155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1160,19 +1180,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EAB5F6-372E-405B-92BA-30090907988F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1189,47 +1209,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1242,12 +1279,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1264,20 +1301,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
       <c r="B2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1289,13 +1326,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4242D46-BCFC-40E7-86B5-81B9738C0652}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1329,7 +1366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1343,7 +1380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1360,7 +1397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1374,7 +1411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1398,15 +1435,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4CCABD-60FE-4432-B7F3-5FCDC887A931}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1423,47 +1460,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>103</v>
       </c>
     </row>

--- a/CV/CV_database.xlsx
+++ b/CV/CV_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aymeric\Documents\GitHub\Aymeric_CV\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6747892-1CDF-4D0D-AFAA-53AEBA5AA88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB3ADE-76C8-4A39-8CBF-9D150361F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="724" activeTab="3" xr2:uid="{8640E71C-101B-402D-8D1E-82767EE98E68}"/>
+    <workbookView xWindow="825" yWindow="1305" windowWidth="21600" windowHeight="11235" tabRatio="724" activeTab="4" xr2:uid="{8640E71C-101B-402D-8D1E-82767EE98E68}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
   <si>
     <t>where</t>
   </si>
@@ -188,9 +188,6 @@
     <t>La influencia del contexto paisajístico en la diversidad de aves y murciélagos forestales en los cacaotales de la zona Zoque, México | Presentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellence awards, QCBS </t>
-  </si>
-  <si>
     <t>Microprogram in sustainable development</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>Chambray-lès-Tours, France</t>
   </si>
   <si>
-    <t>Realization of wildlife inventory and scientific vulgarization workshops</t>
-  </si>
-  <si>
     <t>2016 - Present</t>
   </si>
   <si>
@@ -363,6 +357,24 @@
   </si>
   <si>
     <t>Influencia de la presencia y del mantenimienbto de las comunidades de aves y murcielagos en los agroforestales de cacao de la region Zoque | Presentation</t>
+  </si>
+  <si>
+    <t>Realization of wildlife inventories and scientific vulgarization workshops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellence award, QCBS </t>
+  </si>
+  <si>
+    <t>the Eastern Townships of Quebec Gala of Excellence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Excellence award </t>
+  </si>
+  <si>
+    <t>1 500 $</t>
+  </si>
+  <si>
+    <t>for my participation at équipe verte de l'Université de Sherbrooke</t>
   </si>
 </sst>
 </file>
@@ -737,15 +749,15 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -762,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -779,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -796,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -813,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -840,15 +852,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -865,12 +877,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -879,12 +891,12 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -896,63 +908,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -961,24 +973,24 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -995,14 +1007,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1121,7 +1133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1138,9 +1150,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>2014</v>
@@ -1152,24 +1164,24 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1182,17 +1194,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EAB5F6-372E-405B-92BA-30090907988F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1209,21 +1221,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1237,12 +1249,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -1251,7 +1263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
@@ -1276,15 +1288,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7944FD9-EA7C-476A-A3C5-8D9D0BD7F20C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1301,20 +1316,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3">
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
         <v>2021</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1327,12 +1373,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1349,12 +1395,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1363,15 +1409,15 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1380,43 +1426,43 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1425,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1438,12 +1484,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1460,59 +1506,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>2021</v>
       </c>
       <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
